--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1523536.425086917</v>
+        <v>1627716.059537988</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>345.3378010935415</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247634</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>218.3530578519969</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>216.3629499887705</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>177.4890078992023</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>250.1897979383795</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247589</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1065,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>210.2508625754652</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1120,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>52.23490948285971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.81275980261439</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1196,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>133.3353942071037</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7661037657141</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1348,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>72.99467458936391</v>
       </c>
     </row>
     <row r="11">
@@ -1421,10 +1423,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1525,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484882</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1780,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>107.4021082756238</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>40.96105405076426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>139.5271979141359</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2016,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060473</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>25.7319404949734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375803</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410168</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2959,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>60.11729550773637</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>1.79977260571614</v>
+        <v>108.3613954702483</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>130.4114987159129</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>78.9105100867805</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>265.5657694879909</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>87.21471514852939</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,7 +3954,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>261.5505590167101</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
-        <v>34.21058558914839</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1308.370295943747</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1308.370295943747</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1308.370295943747</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2424.744041450751</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4383,34 +4385,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
         <v>765.151745215813</v>
@@ -4425,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>480.6870701241381</v>
+        <v>478.9911633238871</v>
       </c>
       <c r="C4" t="n">
-        <v>311.7508871962312</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962312</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1425.2195623779</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1136.116695503544</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>881.432207297657</v>
       </c>
       <c r="W4" t="n">
-        <v>1101.676548429999</v>
+        <v>881.432207297657</v>
       </c>
       <c r="X4" t="n">
-        <v>883.128114097908</v>
+        <v>881.432207297657</v>
       </c>
       <c r="Y4" t="n">
-        <v>662.3355349543779</v>
+        <v>660.6396281541269</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1944.904841306683</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792695</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="W5" t="n">
-        <v>2704.970439631885</v>
+        <v>2630.721789066529</v>
       </c>
       <c r="X5" t="n">
-        <v>2331.504681370805</v>
+        <v>2257.256030805449</v>
       </c>
       <c r="Y5" t="n">
-        <v>2331.504681370805</v>
+        <v>2004.539063190925</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.543854481107</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.09082519998</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387288</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332733</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601583</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927764</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064387</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,37 +4661,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.82830229719</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199863</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>310.0549803959803</v>
+        <v>479.6639240396553</v>
       </c>
       <c r="C7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1433.40359801076</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621296</v>
+        <v>1178.719109804873</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251691</v>
+        <v>889.3019397679124</v>
       </c>
       <c r="X7" t="n">
-        <v>362.8175152271517</v>
+        <v>661.312388869895</v>
       </c>
       <c r="Y7" t="n">
-        <v>310.0549803959803</v>
+        <v>661.312388869895</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4826,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2071.975386180638</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.5839474470786</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>624.6477645191717</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>624.6477645191717</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
         <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.78115774934</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.014542318866</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.014542318866</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1424.014542318866</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1424.014542318866</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="X10" t="n">
-        <v>1196.024991420848</v>
+        <v>1031.168009380941</v>
       </c>
       <c r="Y10" t="n">
-        <v>975.2324122773183</v>
+        <v>957.4360148462299</v>
       </c>
     </row>
     <row r="11">
@@ -5033,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>949.9304447718133</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5269,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5355,25 +5357,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5497,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5531,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,28 +5591,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>448.1846595309963</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>943.510265746755</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M18" t="n">
-        <v>1540.888753373307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1688.385853854706</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1688.385853854706</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>1460.396302956689</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>1239.603723813159</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5738,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5747,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
         <v>2516.421633107662</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U22" t="n">
-        <v>2044.506784258106</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.235169913446</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2381.235169913446</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>2381.235169913446</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>2978.613657539998</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>3606.211621094605</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>3997.308687575531</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4420.931837070599</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6218,37 +6220,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6260,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
         <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M27" t="n">
-        <v>1140.291933891999</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>1767.889897446606</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703109</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>695.5020655703109</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6455,43 +6457,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
         <v>4151.812499466573</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>2804.652647788941</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>2635.716464861034</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>2485.599825448699</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>4268.260127559378</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>3979.184900903576</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>3724.500412697689</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>3435.083242660729</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>3207.093691762711</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>2986.301112619181</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>747.3584617859347</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>599.4453682035415</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>452.5554207056311</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>285.3593214205111</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138415</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
         <v>243.4633055756266</v>
@@ -7020,19 +7022,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1468.439756756785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O36" t="n">
-        <v>2020.349486996072</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2443.97263649114</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>916.3099000622261</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>449.3439841395904</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,7 +7186,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q39" t="n">
         <v>2516.421633107662</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>2117.354959541324</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1959.113366595131</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1704.428878389244</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1415.011708352283</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7442,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>741.8431516380886</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C43" t="n">
-        <v>572.9069687101817</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1713.268596655246</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1458.584108449359</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1169.166938412398</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.284195611858</v>
+        <v>941.1773875143809</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.4916164683283</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="44">
@@ -7628,34 +7630,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7664,10 +7666,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7727,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>1870.702844468418</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2294.325993963486</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>662.1522880254209</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>493.2161050975141</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2345.361232772917</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2125.759767795858</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1836.684541140056</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1582.000052934169</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1292.582882897208</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1064.593331999191</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>843.8007528556607</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.104893954106956e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1.570299446029821e-12</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9407,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.145255306345589e-12</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23413,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870885</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>245.5619442858267</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>40.30478226780144</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23902,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>110.0033420516641</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>46.45968844822735</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>46.45968844823076</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>226.4057028288546</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25083,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405078</v>
+        <v>31.93331737597555</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>35.11263957635595</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25362,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>20.61870490125324</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>61.40075786968296</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>24.63391537253409</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="H2" t="n">
+        <v>524645.2897985041</v>
+      </c>
+      <c r="I2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="J2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="G2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.289798504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>524645.2897985042</v>
-      </c>
-      <c r="J2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="K2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="L2" t="n">
+        <v>524645.2897985039</v>
+      </c>
+      <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
-      <c r="M2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="N2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073552</v>
@@ -26378,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818175</v>
+        <v>92183.89891818185</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.8989181817</v>
+        <v>92183.89891818188</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818173</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26433,7 +26435,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683037</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26445,10 +26447,10 @@
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683043</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
         <v>12996.86414683044</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995185.4347953832</v>
+        <v>-995185.4347953829</v>
       </c>
       <c r="C6" t="n">
-        <v>333559.3109322094</v>
+        <v>333559.3109322092</v>
       </c>
       <c r="D6" t="n">
-        <v>333559.310932209</v>
+        <v>333559.3109322086</v>
       </c>
       <c r="E6" t="n">
-        <v>85113.43402041128</v>
+        <v>85113.43402041127</v>
       </c>
       <c r="F6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277665</v>
       </c>
       <c r="G6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277663</v>
       </c>
       <c r="H6" t="n">
         <v>410525.8958277664</v>
       </c>
       <c r="I6" t="n">
-        <v>410525.8958277666</v>
+        <v>410525.895827766</v>
       </c>
       <c r="J6" t="n">
-        <v>192994.6934304888</v>
+        <v>192994.693430489</v>
       </c>
       <c r="K6" t="n">
         <v>410525.8958277664</v>
       </c>
       <c r="L6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277663</v>
       </c>
       <c r="M6" t="n">
-        <v>325470.8678922547</v>
+        <v>325470.8678922546</v>
       </c>
       <c r="N6" t="n">
-        <v>410525.8958277665</v>
+        <v>410525.8958277662</v>
       </c>
       <c r="O6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277662</v>
       </c>
       <c r="P6" t="n">
-        <v>410525.8958277664</v>
+        <v>410525.8958277663</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022922</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26972,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>40.9001375625121</v>
       </c>
     </row>
     <row r="3">
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27588,19 +27590,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>1.195891424172316</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>9.346705400266615</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27634,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>171.7519608182107</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>136.0481407176741</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27785,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>75.96097563014769</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>166.3497438692351</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>287.9210818608662</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27916,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>236.3957064713653</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0.002921565727802999</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28068,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>145.5899787627309</v>
       </c>
     </row>
     <row r="11">
@@ -29323,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29460,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31607,7 +31609,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
         <v>593.9283018233475</v>
@@ -31841,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>514.8598010172138</v>
+        <v>211.7351844430274</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31862,7 +31864,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32311,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>344.6306853939244</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860829</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>301.6445156724557</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>537.6437863443698</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>361.5531172119654</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>316.0872899694772</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>175.605272155109</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,13 +33490,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,34 +33505,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N33" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>671.2522281007816</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>213.1625787491746</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>364.3208035245826</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35255,7 +35257,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
         <v>451.7942679013292</v>
@@ -35489,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>376.3054212373396</v>
+        <v>73.18080466315317</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35510,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35641,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>206.7892464195654</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640646</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>159.0482712280113</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>395.0475418999253</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,22 +36679,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>219.4190832899471</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>173.4910455250327</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191345</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36913,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>37.76383318075003</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37153,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N33" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>528.6559836563372</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>73.18080466315305</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>224.3390294385611</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1627716.059537988</v>
+        <v>1623703.449523995</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283182</v>
+        <v>416855.105228319</v>
       </c>
     </row>
     <row r="9">
@@ -664,10 +664,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>23.34416082770814</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.3378010935415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247634</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>27.00971856836598</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>218.3530578519969</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>252.4010106926956</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>250.1897979383795</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247589</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1059,22 +1059,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>5.918693043520068</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>210.2508625754652</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>255.4387978730003</v>
       </c>
       <c r="X8" t="n">
-        <v>133.3353942071037</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1296,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>72.99467458936391</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>63.1628130171261</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>14.75529838241474</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,19 +2007,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>55.52079624060473</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>180.330238561827</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>176.1811323375803</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2724,13 +2724,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,13 +2769,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>239.7247859410168</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>14.92158678358339</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790575</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>100.9025715636457</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>108.3613954702483</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>133.8107367464754</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>265.5657694879909</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,19 +3900,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077138</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>261.5505590167101</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>1685.375546116516</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1316.413029176105</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>958.1473305693542</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
@@ -4327,16 +4327,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4345,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450751</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450751</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450751</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>936.573581468607</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>846.0716871064747</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218338</v>
+        <v>827.0643955080124</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986296</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.9911633238871</v>
+        <v>2419.88182078928</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959802</v>
+        <v>2250.945637861373</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959802</v>
+        <v>2100.828998449037</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959802</v>
+        <v>1952.915904866644</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959802</v>
+        <v>1806.025957368734</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959802</v>
+        <v>1638.323120743453</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>1492.105933961311</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218338</v>
+        <v>1464.82338995286</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348672</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797168</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760404</v>
+        <v>2374.650049396717</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022995</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3235.775364366697</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1425.2195623779</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>1136.116695503544</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="V4" t="n">
-        <v>881.432207297657</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="W4" t="n">
-        <v>881.432207297657</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="X4" t="n">
-        <v>881.432207297657</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="Y4" t="n">
-        <v>660.6396281541269</v>
+        <v>2601.53028561952</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1617.939223126803</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C5" t="n">
-        <v>1617.939223126803</v>
+        <v>1816.082987429757</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1457.817288823007</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1072.029036224763</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389511</v>
+        <v>661.0431314351551</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066529</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066529</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805449</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="Y5" t="n">
-        <v>2004.539063190925</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.543854481107</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.09082519998</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387288</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332733</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601583</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927764</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064387</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4661,37 +4661,37 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.82830229719</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199863</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501175</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>479.6639240396553</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>310.7277411117484</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672846</v>
+        <v>1831.485613024283</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672846</v>
+        <v>1609.718997593809</v>
       </c>
       <c r="U7" t="n">
-        <v>1433.40359801076</v>
+        <v>1609.718997593809</v>
       </c>
       <c r="V7" t="n">
-        <v>1178.719109804873</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="W7" t="n">
-        <v>889.3019397679124</v>
+        <v>1355.034509387922</v>
       </c>
       <c r="X7" t="n">
-        <v>661.312388869895</v>
+        <v>1127.044958489905</v>
       </c>
       <c r="Y7" t="n">
-        <v>661.312388869895</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2751.318417769983</v>
       </c>
       <c r="X8" t="n">
-        <v>2047.583838282732</v>
+        <v>2377.852659508903</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>1987.713327533092</v>
       </c>
     </row>
     <row r="9">
@@ -4877,28 +4877,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W10" t="n">
-        <v>1259.157560278958</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X10" t="n">
-        <v>1031.168009380941</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y10" t="n">
-        <v>957.4360148462299</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5023,13 +5023,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5038,22 +5038,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5123,25 +5123,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C13" t="n">
-        <v>695.5020655703109</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D13" t="n">
-        <v>695.5020655703109</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5299,7 +5299,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>983.3556038098237</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C16" t="n">
-        <v>814.4194208819168</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D16" t="n">
-        <v>664.3027814695811</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="E16" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>202.3036411041575</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5439,10 +5439,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>2157.887856924458</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1903.203368718571</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1613.786198681611</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1385.796647783593</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>1165.004068640063</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5533,7 +5533,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5597,25 +5597,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,25 +5749,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327652</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048583</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925226</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122191</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603202</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.2863919474</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741513</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704552</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806535</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630049</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,19 +5989,19 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,49 +6208,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>984.9192356072716</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>815.9830526793647</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>665.866413267029</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797189</v>
+        <v>517.9533196846359</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2804.652647788941</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>2635.716464861034</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>2485.599825448699</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.686731866305</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.686731866305</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4268.260127559378</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3979.184900903576</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3724.500412697689</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3435.083242660729</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3207.093691762711</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2986.301112619181</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>916.2946447138415</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C34" t="n">
-        <v>747.3584617859347</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D34" t="n">
-        <v>747.3584617859347</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>599.4453682035415</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>452.5554207056311</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>285.3593214205111</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2311.800723230285</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>2092.199258253227</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1803.124031597425</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1548.439543391538</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1259.022373354577</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>1031.03282245656</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1959.113366595131</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1704.428878389244</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1415.011708352283</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1187.022157454266</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7408,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7363435406111</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U43" t="n">
-        <v>1713.268596655246</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V43" t="n">
-        <v>1458.584108449359</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W43" t="n">
-        <v>1169.166938412398</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X43" t="n">
-        <v>941.1773875143809</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.3848083708508</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="44">
@@ -7639,19 +7639,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.793114229131</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.104893954106956e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8291,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1.570299446029821e-12</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>-1.145255306345589e-12</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>83.27114962944307</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>131.6786642641544</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -23895,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>105.8542358274172</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>110.0033420516639</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>31.3446090911267</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>46.45968844822735</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>133.693886234629</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823076</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>66.34424953498214</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>31.93331737597555</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>47.21554925516918</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>20.61870490125324</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>65.54986409393081</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>24.63391537253409</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>119.8635921600918</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
   </sheetData>
@@ -26325,34 +26325,34 @@
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
+        <v>524645.2897985037</v>
+      </c>
+      <c r="G2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="H2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="G2" t="n">
-        <v>524645.2897985041</v>
-      </c>
-      <c r="H2" t="n">
-        <v>524645.2897985041</v>
-      </c>
       <c r="I2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
+        <v>524645.2897985036</v>
+      </c>
+      <c r="L2" t="n">
         <v>524645.289798504</v>
-      </c>
-      <c r="L2" t="n">
-        <v>524645.2897985039</v>
       </c>
       <c r="M2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="N2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="P2" t="n">
         <v>524645.2897985039</v>
@@ -26365,25 +26365,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.469155386075727e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818185</v>
+        <v>92183.89891818177</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818188</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818166</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26435,7 +26435,7 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683037</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995185.4347953829</v>
+        <v>-995185.4347953832</v>
       </c>
       <c r="C6" t="n">
+        <v>333559.310932209</v>
+      </c>
+      <c r="D6" t="n">
         <v>333559.3109322092</v>
       </c>
-      <c r="D6" t="n">
-        <v>333559.3109322086</v>
-      </c>
       <c r="E6" t="n">
-        <v>85113.43402041127</v>
+        <v>84766.0547660544</v>
       </c>
       <c r="F6" t="n">
-        <v>410525.8958277665</v>
+        <v>410178.5165734092</v>
       </c>
       <c r="G6" t="n">
-        <v>410525.8958277663</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="H6" t="n">
-        <v>410525.8958277664</v>
+        <v>410178.5165734093</v>
       </c>
       <c r="I6" t="n">
-        <v>410525.895827766</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="J6" t="n">
-        <v>192994.693430489</v>
+        <v>192647.3141761321</v>
       </c>
       <c r="K6" t="n">
-        <v>410525.8958277664</v>
+        <v>410178.5165734091</v>
       </c>
       <c r="L6" t="n">
-        <v>410525.8958277663</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="M6" t="n">
-        <v>325470.8678922546</v>
+        <v>325123.4886378977</v>
       </c>
       <c r="N6" t="n">
-        <v>410525.8958277662</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="O6" t="n">
-        <v>410525.8958277662</v>
+        <v>410178.5165734094</v>
       </c>
       <c r="P6" t="n">
-        <v>410525.8958277663</v>
+        <v>410178.5165734092</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26813,10 +26813,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26974,34 +26974,34 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,10 +27384,10 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>358.5862092445536</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.9001375625121</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>69.34270184147211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,13 +27590,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1.195891424172316</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>158.5207149607579</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>136.0481407176741</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,16 +27779,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>183.8503322879218</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>75.96097563014769</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>93.80217084441267</v>
       </c>
       <c r="X8" t="n">
-        <v>236.3957064713653</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,22 +28016,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,25 +28061,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>145.5899787627309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29462,7 +29462,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>211.7351844430274</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31858,13 +31858,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>581.3243739860829</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32332,13 +32332,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>301.6445156724557</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>316.0872899694772</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>175.605272155109</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>671.2522281007816</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34444,16 +34444,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862122</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>364.3208035245826</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>73.18080466315317</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35506,13 +35506,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>439.1903400640646</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35980,13 +35980,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>159.0482712280113</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>173.4910455250327</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>37.76383318075003</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>528.6559836563372</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>224.3390294385611</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1623703.449523995</v>
+        <v>1625463.979826781</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>94.81275980261665</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>23.34416082770814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734116405</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>138.6444210303395</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>27.00971856836598</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>252.4010106926956</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -955,13 +955,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>278.3912383048506</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,10 +1071,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="S7" t="n">
-        <v>5.918693043520068</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>75.4571321610379</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1189,13 +1189,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>255.4387978730003</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,19 +1293,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>173.626889274476</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,10 +1770,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>14.75529838241474</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1818,16 +1818,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>75.00788511618036</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1900,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.0280580960833</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,7 +2064,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>71.79687029690999</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>180.330238561827</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>114.0764389318045</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2775,7 +2775,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2797,7 +2797,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2952,13 +2952,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="D31" t="n">
-        <v>14.92158678358339</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>100.9025715636457</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3237,10 +3237,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>205.297786851435</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>95.12712756824166</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>133.8107367464754</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>115.4764219077138</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>28.75188085812055</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,10 +4152,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116516</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="C2" t="n">
-        <v>1316.413029176105</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>958.1473305693542</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794326</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450755</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180641</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064747</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080124</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986296</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2419.88182078928</v>
+        <v>820.4128495803452</v>
       </c>
       <c r="C4" t="n">
-        <v>2250.945637861373</v>
+        <v>651.4766666524383</v>
       </c>
       <c r="D4" t="n">
-        <v>2100.828998449037</v>
+        <v>501.3600272401026</v>
       </c>
       <c r="E4" t="n">
-        <v>1952.915904866644</v>
+        <v>353.4469336577095</v>
       </c>
       <c r="F4" t="n">
-        <v>1806.025957368734</v>
+        <v>206.5569861597991</v>
       </c>
       <c r="G4" t="n">
-        <v>1638.323120743453</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H4" t="n">
-        <v>1492.105933961311</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.82338995286</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764917</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>2822.32286476305</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W4" t="n">
-        <v>2822.32286476305</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="X4" t="n">
-        <v>2822.32286476305</v>
+        <v>1222.853893554115</v>
       </c>
       <c r="Y4" t="n">
-        <v>2601.53028561952</v>
+        <v>1002.061314410585</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2185.045504370169</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C5" t="n">
-        <v>1816.082987429757</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D5" t="n">
-        <v>1457.817288823007</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E5" t="n">
-        <v>1072.029036224763</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>661.0431314351551</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912105</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810571</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136267</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2961.784676410104</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066533</v>
       </c>
       <c r="X5" t="n">
-        <v>2961.784676410103</v>
+        <v>2349.518518051532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2571.645344434291</v>
+        <v>1959.379186075721</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228008</v>
@@ -4652,7 +4652,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>945.3964936596652</v>
+        <v>994.2880032601529</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>825.351820332246</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>675.2351809199102</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>527.3220873375171</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="S7" t="n">
-        <v>1831.485613024283</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="T7" t="n">
-        <v>1609.718997593809</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1609.718997593809</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1355.034509387922</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1355.034509387922</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.044958489905</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1127.044958489905</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1308.370295943748</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4837,19 +4837,19 @@
         <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.318417769983</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2377.852659508903</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1987.713327533092</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4889,7 +4889,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218343</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1751.913851851648</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1530.147236421175</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1241.044369546818</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>986.3598813409312</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>696.9427113039706</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>468.9531604059532</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>248.1605812624231</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5038,7 +5038,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5129,7 +5129,7 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
         <v>2001.151557821488</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>391.8463960427007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D13" t="n">
-        <v>241.729756630365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797187</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5275,13 +5275,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,10 +5293,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,19 +5354,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5412,13 +5412,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>733.4550657171301</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>564.5188827892232</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>564.5188827892232</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
         <v>549.6145409888043</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5536,7 +5536,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5712,13 +5712,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="20">
@@ -5740,31 +5740,31 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>481.447947124485</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>333.5348535420919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>166.3387542569719</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>2045.209862480144</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1790.525374274257</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1501.108204237296</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5989,40 +5989,40 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6208,22 +6208,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>984.9192356072716</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>815.9830526793647</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>665.866413267029</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E28" t="n">
-        <v>517.9533196846359</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
         <v>245.2306927803937</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>734.6461798836013</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
         <v>484.8112968429803</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2172.545877962526</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1883.470651306724</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1628.786163100837</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1339.368993063877</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
       <c r="Y34" t="n">
-        <v>916.2946447138411</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6952,7 +6952,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>849.3843576263199</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>680.448174698413</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D37" t="n">
-        <v>530.3315352860773</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E37" t="n">
-        <v>382.4184417036842</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F37" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7122,25 +7122,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2311.800723230285</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2092.199258253227</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1803.124031597425</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1548.439543391538</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1259.022373354577</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1031.03282245656</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>1031.03282245656</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.0655846733346</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E43" t="n">
         <v>261.0127623330919</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1754.597837787969</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V43" t="n">
-        <v>1499.913349582082</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W43" t="n">
-        <v>1210.496179545122</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X43" t="n">
-        <v>982.5066286471044</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y43" t="n">
-        <v>761.7140495035743</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>513.8536007400717</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-1.876970801006905e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,10 +23658,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.6786642641544</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>211.5151132204106</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221290565</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>105.8542358274172</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>31.3446090911267</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24840,13 +24840,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>72.11969353038617</v>
       </c>
       <c r="D31" t="n">
-        <v>133.693886234629</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>66.34424953498214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>12.10766347585323</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>50.29392045468958</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>47.21554925516918</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>65.54986409393081</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>119.8635921600918</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>900060.1389592531</v>
+        <v>900060.1389592532</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>900060.1389592532</v>
+        <v>900060.1389592531</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117842</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="F2" t="n">
-        <v>524645.2897985037</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
+        <v>524645.289798504</v>
+      </c>
+      <c r="I2" t="n">
         <v>524645.2897985039</v>
       </c>
-      <c r="I2" t="n">
-        <v>524645.289798504</v>
-      </c>
       <c r="J2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.2897985036</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
@@ -26352,10 +26352,10 @@
         <v>524645.289798504</v>
       </c>
       <c r="O2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="P2" t="n">
-        <v>524645.2897985039</v>
+        <v>524645.2897985041</v>
       </c>
     </row>
     <row r="3">
@@ -26368,7 +26368,7 @@
         <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469155386075727e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92183.89891818177</v>
+        <v>92183.89891818161</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818172</v>
+        <v>92183.89891818164</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818166</v>
+        <v>92183.8989181817</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-995185.4347953832</v>
+        <v>-995185.4347953838</v>
       </c>
       <c r="C6" t="n">
-        <v>333559.310932209</v>
+        <v>333559.3109322097</v>
       </c>
       <c r="D6" t="n">
-        <v>333559.3109322092</v>
+        <v>333559.3109322095</v>
       </c>
       <c r="E6" t="n">
-        <v>84766.0547660544</v>
+        <v>85078.69609497563</v>
       </c>
       <c r="F6" t="n">
-        <v>410178.5165734092</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="G6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="H6" t="n">
-        <v>410178.5165734093</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="I6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023306</v>
       </c>
       <c r="J6" t="n">
-        <v>192647.3141761321</v>
+        <v>192959.9555050529</v>
       </c>
       <c r="K6" t="n">
-        <v>410178.5165734091</v>
+        <v>410491.1579023306</v>
       </c>
       <c r="L6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="M6" t="n">
-        <v>325123.4886378977</v>
+        <v>325436.1299668189</v>
       </c>
       <c r="N6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023307</v>
       </c>
       <c r="O6" t="n">
-        <v>410178.5165734094</v>
+        <v>410491.1579023305</v>
       </c>
       <c r="P6" t="n">
-        <v>410178.5165734092</v>
+        <v>410491.1579023308</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>270.4601319683909</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>358.5862092445536</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>27.38138722868874</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>69.34270184147211</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>158.5207149607579</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27675,13 +27675,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>91.33986237361847</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>41.51960553688805</v>
       </c>
       <c r="S7" t="n">
-        <v>183.8503322879218</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>306.4732379112239</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27909,13 +27909,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>93.80217084441267</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28061,19 +28061,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>16.14213605696594</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,7 +32089,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>444.2274915982894</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32961,7 +32961,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
         <v>790.8204499236507</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35497,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,7 +35737,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35971,13 +35971,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>302.093457676271</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
